--- a/文档/转转卡/项目加班与支出/加班时间表.xlsx
+++ b/文档/转转卡/项目加班与支出/加班时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,11 +69,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张静、丁旭、马冬冬、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周末加班</t>
+  </si>
+  <si>
+    <t>张静(开发)、丁旭、马冬冬、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静（开发）、马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静（开发）、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -447,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,12 +596,96 @@
         <v>43079</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="4">
+        <v>43080</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
+        <v>43081</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="4">
+        <v>43082</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
+        <v>43083</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>43085</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
+        <v>43087</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
+        <v>43088</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/转转卡/项目加班与支出/加班时间表.xlsx
+++ b/文档/转转卡/项目加班与支出/加班时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨智敏、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作日加班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,6 +89,26 @@
   </si>
   <si>
     <t>马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静(开发)、马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静(开发)、马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E18"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,10 +540,10 @@
         <v>43070</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -548,7 +564,7 @@
         <v>43073</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -560,7 +576,7 @@
         <v>43074</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -572,7 +588,7 @@
         <v>43075</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -584,7 +600,7 @@
         <v>43076</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -596,10 +612,10 @@
         <v>43079</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -608,7 +624,7 @@
         <v>43080</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -620,7 +636,7 @@
         <v>43081</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -632,7 +648,7 @@
         <v>43082</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -644,7 +660,7 @@
         <v>43083</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -656,10 +672,10 @@
         <v>43085</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -668,7 +684,7 @@
         <v>43087</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -680,12 +696,144 @@
         <v>43088</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
+        <v>43089</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="4">
+        <v>43090</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
+        <v>43093</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="4">
+        <v>43094</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
+        <v>43095</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
+        <v>43096</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
+        <v>43097</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
+        <v>43098</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>43101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
+        <v>43102</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
+        <v>43103</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/转转卡/项目加班与支出/加班时间表.xlsx
+++ b/文档/转转卡/项目加班与支出/加班时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,6 +834,18 @@
         <v>8</v>
       </c>
       <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
+        <v>43104</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/转转卡/项目加班与支出/加班时间表.xlsx
+++ b/文档/转转卡/项目加班与支出/加班时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,14 @@
   </si>
   <si>
     <t>蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静(开发)、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁旭、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E30"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -846,6 +854,54 @@
         <v>8</v>
       </c>
       <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
+        <v>43106</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <v>43107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <v>43108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <v>43109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/转转卡/项目加班与支出/加班时间表.xlsx
+++ b/文档/转转卡/项目加班与支出/加班时间表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,14 +109,6 @@
   </si>
   <si>
     <t>蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张静(开发)、丁旭、蒋兵兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁旭、蒋兵兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,54 +846,6 @@
         <v>8</v>
       </c>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="4">
-        <v>43106</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="4">
-        <v>43107</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="4">
-        <v>43108</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="4">
-        <v>43109</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/转转卡/项目加班与支出/加班时间表.xlsx
+++ b/文档/转转卡/项目加班与支出/加班时间表.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$42</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +112,50 @@
   </si>
   <si>
     <t>蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静(开发)、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静（开发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静（UI）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静(开发)、马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马冬冬、丁旭、蒋兵兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周末总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,21 +530,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E30"/>
+  <dimension ref="B2:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="4">
         <v>43064</v>
       </c>
@@ -522,8 +569,11 @@
         <v>7</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
         <v>43068</v>
       </c>
@@ -534,8 +584,11 @@
         <v>8</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>43070</v>
       </c>
@@ -546,8 +599,11 @@
         <v>10</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>43072</v>
       </c>
@@ -558,8 +614,11 @@
         <v>9</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>43073</v>
       </c>
@@ -570,8 +629,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>43074</v>
       </c>
@@ -582,8 +644,11 @@
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>43075</v>
       </c>
@@ -594,8 +659,12 @@
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>43076</v>
       </c>
@@ -607,7 +676,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>43079</v>
       </c>
@@ -619,7 +688,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>43080</v>
       </c>
@@ -631,7 +700,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>43081</v>
       </c>
@@ -643,7 +712,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>43082</v>
       </c>
@@ -655,7 +724,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>43083</v>
       </c>
@@ -667,7 +736,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>43085</v>
       </c>
@@ -847,7 +916,216 @@
       </c>
       <c r="E30" s="1"/>
     </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
+        <v>43106</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <v>43107</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <v>43108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <v>43109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="4">
+        <v>43110</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="4">
+        <v>43111</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="4">
+        <v>43112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="4">
+        <v>43113</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="4">
+        <v>43114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="4">
+        <v>43115</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="4">
+        <v>43116</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="4">
+        <v>43117</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="2">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2">
+        <v>29</v>
+      </c>
+      <c r="D49" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="2">
+        <v>30</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B2:E42"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D44">
